--- a/biology/Médecine/Robert_Morrison_(explorateur)/Robert_Morrison_(explorateur).xlsx
+++ b/biology/Médecine/Robert_Morrison_(explorateur)/Robert_Morrison_(explorateur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Morrison, mort le 27 décembre 1825 à Jannah[1] (Bénin), est un chirurgien de marine et explorateur britannique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Morrison, mort le 27 décembre 1825 à Jannah (Bénin), est un chirurgien de marine et explorateur britannique.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Morrison sert en 1820 sur le HMS Favorite. Il rejoint ensuite l'expédition d'Hugh Clapperton au Nigeria, avec Robert Pearce et Thomas Dickson[2].
-Malade, il quitte l'expédition et rejoint la côte. Richard Lander le rencontre à Badagry le 7 décembre 1825[3] et lui achète quelques objets. Lander trouvera sa tombe en 1830[4].
-Il meurt à Jannah (Bénin) le 27 décembre 1825[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morrison sert en 1820 sur le HMS Favorite. Il rejoint ensuite l'expédition d'Hugh Clapperton au Nigeria, avec Robert Pearce et Thomas Dickson.
+Malade, il quitte l'expédition et rejoint la côte. Richard Lander le rencontre à Badagry le 7 décembre 1825 et lui achète quelques objets. Lander trouvera sa tombe en 1830.
+Il meurt à Jannah (Bénin) le 27 décembre 1825,.
 </t>
         </is>
       </c>
